--- a/dataCase/Case_2.xlsx
+++ b/dataCase/Case_2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -396,12 +396,238 @@
   <si>
     <t>xml</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>crm</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF93A1A1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>上传会务指南</t>
+    </r>
+  </si>
+  <si>
+    <t>/document/upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>form-data-boundary</t>
+  </si>
+  <si>
+    <t>title:1.png
+course_name_id:63
+course_id:1112
+desc:7
+doc_type:1
+is_public:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>('file','C:\\Users\\Acer\\Pictures\\Screenshots\\10086.png')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/index/user/save</t>
+  </si>
+  <si>
+    <t>form_data_boundary</t>
+  </si>
+  <si>
+    <r>
+      <t>fwhc-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上传头像</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fwhadmin-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上传图片</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/common/UploadUpYun.html</t>
+  </si>
+  <si>
+    <r>
+      <t>fwhadmin-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编辑banner</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ban_name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">校长，别再那么累
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>link: https://fuwuhao.lpcollege.com/#/courseDetails/1502
+sort: 13
+is_show: 1
+file: 
+image: https://crm.mp.image.lpcollege.com/fwh/official/banner/2019-10-24/de88ac1caa5ede52023cae58a2f7ee54.jpg
+__token__: 4b111ac68e43b25b34e4ed4f8030423f
+ban_id: 8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>('head','C:\\Users\\Acer\\Pictures\\Screenshots\\1.png')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/banner/editBanner.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code": 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code": "0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -449,6 +675,26 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF93A1A1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF93A1A1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF2AA198"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -477,7 +723,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -500,6 +746,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -786,18 +1039,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="19.85546875" customWidth="1"/>
+    <col min="11" max="12" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -831,26 +1084,29 @@
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -876,12 +1132,13 @@
       <c r="K2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="L2" s="4"/>
+      <c r="Q2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="190.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="190.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -909,20 +1166,56 @@
       <c r="K3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="L3" s="5"/>
+      <c r="Q3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="K4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://47.112.126.72:8099/stuCardList"/>
     <hyperlink ref="C3" r:id="rId2" display="http://47.112.126.72:8099/stuCardEdit"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://47.112.126.72:8099/stuCardEdit"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
     <oddHeader>&amp;C&amp;P</oddHeader>
     <oddFooter>&amp;C&amp;F</oddFooter>
@@ -935,18 +1228,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="24.7109375" customWidth="1"/>
+    <col min="11" max="12" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -980,26 +1273,29 @@
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1025,12 +1321,13 @@
       <c r="K2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="L2" s="5"/>
+      <c r="Q2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1058,10 +1355,43 @@
       <c r="K3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="L3" s="5"/>
+      <c r="Q3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1080,20 +1410,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="9"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1127,26 +1458,29 @@
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1172,12 +1506,13 @@
       <c r="K2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="L2" s="4"/>
+      <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="114" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1205,12 +1540,13 @@
       <c r="K3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="L3" s="5"/>
+      <c r="Q3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1238,11 +1574,78 @@
       <c r="K4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5"/>
+      <c r="M4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="Q5" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="267" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="4"/>
+      <c r="Q6" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
